--- a/Case/bzdb-add.xlsx
+++ b/Case/bzdb-add.xlsx
@@ -2396,9 +2396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
